--- a/Emissao/Dados_Emissao/Original/Stefhany_Beatriz_Carvalho.xlsx
+++ b/Emissao/Dados_Emissao/Original/Stefhany_Beatriz_Carvalho.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="79">
   <si>
     <t>Cia</t>
   </si>
@@ -92,13 +92,73 @@
     <t>502704 - ACRO CORRETORA DE SEGUROS</t>
   </si>
   <si>
+    <t>400554 - ALEX PEREIRA</t>
+  </si>
+  <si>
+    <t>405152 - ALIANCA J L COR SEGS LTDA</t>
+  </si>
+  <si>
+    <t>929 - PIRACICABA MERCADO</t>
+  </si>
+  <si>
+    <t>403077 - ALMEIDA LIMA CORRETORA DE SEGURO</t>
+  </si>
+  <si>
+    <t>400610 - ANDERSON LOVADINE</t>
+  </si>
+  <si>
+    <t>400070 - ARGEU BARBOSA DO AMARAL</t>
+  </si>
+  <si>
+    <t>503374 - AVEIRO ADM E COR DE SEGS LTDA</t>
+  </si>
+  <si>
+    <t>930 - ITAPETININGA MERCADO</t>
+  </si>
+  <si>
+    <t>497359 - BARTOLOMEU CORR E ADM DE SEGUROS</t>
+  </si>
+  <si>
+    <t>502752 - BARTOLOMEU CORR E ADM DE SEGUROS</t>
+  </si>
+  <si>
+    <t>504870 - BENELIFE CORRETORA DE SEGUROS LT</t>
+  </si>
+  <si>
+    <t>485048 - BIANCA APARECIDA ZAMPRONIO LUZ</t>
+  </si>
+  <si>
+    <t>498845 - BLINDASEG CORRETORA DE SEGUROS L</t>
+  </si>
+  <si>
+    <t>438767 - CAMPOS DE OLIVEIRA COR. DE SEGS.</t>
+  </si>
+  <si>
+    <t>502743 - CAMPOS DE OLIVEIRA COR. DE SEGS.</t>
+  </si>
+  <si>
+    <t>445248 - DEX10 CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>512436 - F D DE OLIVEIRA CORRETAGEM DE SE</t>
+  </si>
+  <si>
+    <t>513337 - FERNANDO BORTOLLI CORRETORA DE S</t>
+  </si>
+  <si>
+    <t>403893 - HELENE TEZOTO CONS ADM COR SEG</t>
+  </si>
+  <si>
+    <t>492528 - J.D PIVA CORRETORA DE SEGUROS LT</t>
+  </si>
+  <si>
     <t>531</t>
   </si>
   <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>110439</t>
+    <t>927</t>
+  </si>
+  <si>
+    <t>21570</t>
   </si>
   <si>
     <t>1</t>
@@ -107,357 +167,42 @@
     <t>0</t>
   </si>
   <si>
-    <t>De: 02/10/2024 a 02/10/2025</t>
-  </si>
-  <si>
-    <t>DIRCEU BENEDITO DE ARAUJO</t>
-  </si>
-  <si>
-    <t>07/10/2024</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>R$ 1.642,29</t>
-  </si>
-  <si>
-    <t>R$ 1.763,49</t>
-  </si>
-  <si>
-    <t>400554 - ALEX PEREIRA</t>
-  </si>
-  <si>
-    <t>110586</t>
-  </si>
-  <si>
-    <t>De: 13/10/2024 a 13/10/2025</t>
-  </si>
-  <si>
-    <t>CLAUDINEI GONCALVES DIAS</t>
-  </si>
-  <si>
-    <t>09/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 2.060,78</t>
-  </si>
-  <si>
-    <t>R$ 2.212,86</t>
-  </si>
-  <si>
-    <t>405152 - ALIANCA J L COR SEGS LTDA</t>
-  </si>
-  <si>
-    <t>929 - PIRACICABA MERCADO</t>
-  </si>
-  <si>
-    <t>403077 - ALMEIDA LIMA CORRETORA DE SEGURO</t>
-  </si>
-  <si>
-    <t>400610 - ANDERSON LOVADINE</t>
-  </si>
-  <si>
-    <t>400070 - ARGEU BARBOSA DO AMARAL</t>
-  </si>
-  <si>
-    <t>503374 - AVEIRO ADM E COR DE SEGS LTDA</t>
-  </si>
-  <si>
-    <t>930 - ITAPETININGA MERCADO</t>
-  </si>
-  <si>
-    <t>497359 - BARTOLOMEU CORR E ADM DE SEGUROS</t>
-  </si>
-  <si>
-    <t>110525</t>
-  </si>
-  <si>
-    <t>De: 08/10/2024 a 08/10/2025</t>
-  </si>
-  <si>
-    <t>MILTON DE OLIVEIRA SANTANA</t>
-  </si>
-  <si>
-    <t>08/10/2024</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>R$ 1.818,33</t>
-  </si>
-  <si>
-    <t>R$ 1.952,52</t>
-  </si>
-  <si>
-    <t>502752 - BARTOLOMEU CORR E ADM DE SEGUROS</t>
-  </si>
-  <si>
-    <t>504870 - BENELIFE CORRETORA DE SEGUROS LT</t>
-  </si>
-  <si>
-    <t>485048 - BIANCA APARECIDA ZAMPRONIO LUZ</t>
-  </si>
-  <si>
-    <t>498845 - BLINDASEG CORRETORA DE SEGUROS L</t>
-  </si>
-  <si>
-    <t>438767 - CAMPOS DE OLIVEIRA COR. DE SEGS.</t>
-  </si>
-  <si>
-    <t>502743 - CAMPOS DE OLIVEIRA COR. DE SEGS.</t>
-  </si>
-  <si>
-    <t>927</t>
-  </si>
-  <si>
-    <t>20987</t>
-  </si>
-  <si>
-    <t>De: 04/10/2024 a 04/10/2025</t>
-  </si>
-  <si>
-    <t>MARCOS ANTONIO VALERIO</t>
-  </si>
-  <si>
-    <t>04/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 541,22</t>
-  </si>
-  <si>
-    <t>R$ 581,12</t>
-  </si>
-  <si>
-    <t>445248 - DEX10 CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>512436 - F D DE OLIVEIRA CORRETAGEM DE SE</t>
-  </si>
-  <si>
-    <t>917</t>
-  </si>
-  <si>
-    <t>2511</t>
-  </si>
-  <si>
-    <t>BARZAN MATERIAIS DE CONSTRUCAO</t>
-  </si>
-  <si>
-    <t>R$ 6.965,43</t>
-  </si>
-  <si>
-    <t>R$ 7.479,45</t>
-  </si>
-  <si>
-    <t>513337 - FERNANDO BORTOLLI CORRETORA DE S</t>
-  </si>
-  <si>
-    <t>110211</t>
-  </si>
-  <si>
-    <t>De: 06/10/2024 a 06/10/2025</t>
-  </si>
-  <si>
-    <t>IZAKAYA DAISHO LTDA</t>
-  </si>
-  <si>
-    <t>01/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 5.122,49</t>
-  </si>
-  <si>
-    <t>R$ 5.500,52</t>
-  </si>
-  <si>
-    <t>110385</t>
-  </si>
-  <si>
-    <t>De: 27/09/2024 a 27/09/2025</t>
-  </si>
-  <si>
-    <t>JOSE ROBERTO CONDE 12463309890</t>
-  </si>
-  <si>
-    <t>R$ 1.555,01</t>
-  </si>
-  <si>
-    <t>R$ 1.669,76</t>
-  </si>
-  <si>
-    <t>21010</t>
-  </si>
-  <si>
-    <t>De: 11/10/2024 a 11/10/2025</t>
-  </si>
-  <si>
-    <t>JOAO GUILHERME FANTINI PIQUEIRA</t>
-  </si>
-  <si>
-    <t>R$ 167,62</t>
-  </si>
-  <si>
-    <t>R$ 179,98</t>
-  </si>
-  <si>
-    <t>403893 - HELENE TEZOTO CONS ADM COR SEG</t>
-  </si>
-  <si>
-    <t>110397</t>
-  </si>
-  <si>
-    <t>De: 01/10/2024 a 01/10/2025</t>
-  </si>
-  <si>
-    <t>ADELIA DA SILVA NUNES</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>R$ 1.754,50</t>
-  </si>
-  <si>
-    <t>R$ 1.883,98</t>
-  </si>
-  <si>
-    <t>110502</t>
-  </si>
-  <si>
-    <t>SOUSA &amp; LOPES ASSESSORIA LTDA</t>
-  </si>
-  <si>
-    <t>R$ 3.266,23</t>
-  </si>
-  <si>
-    <t>R$ 3.507,27</t>
-  </si>
-  <si>
-    <t>492528 - J.D PIVA CORRETORA DE SEGUROS LT</t>
-  </si>
-  <si>
-    <t>110265</t>
-  </si>
-  <si>
-    <t>De: 25/09/2024 a 25/09/2025</t>
-  </si>
-  <si>
-    <t>ARCA VEICULOS LTDA EPP</t>
-  </si>
-  <si>
-    <t>03/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 7.115,41</t>
-  </si>
-  <si>
-    <t>R$ 7.640,52</t>
+    <t>De: 01/11/2024 a 01/11/2025</t>
+  </si>
+  <si>
+    <t>DIRCEU PASCOAL DOS SANTOS</t>
+  </si>
+  <si>
+    <t>01/11/2024</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>R$ 460,13</t>
+  </si>
+  <si>
+    <t>R$ 494,08</t>
   </si>
   <si>
     <t>486226 - JAMIL CORRETORA DE SEGUROS LTDA</t>
   </si>
   <si>
-    <t>110300</t>
-  </si>
-  <si>
-    <t>RONALDO CRUZ DE AMORIM</t>
-  </si>
-  <si>
-    <t>R$ 2.369,98</t>
-  </si>
-  <si>
-    <t>R$ 2.544,88</t>
-  </si>
-  <si>
     <t>405178 - KFS CORRETORA DE SEGUROS LTDA.</t>
   </si>
   <si>
-    <t>110301</t>
-  </si>
-  <si>
-    <t>JOSE ELCIO LYRA</t>
-  </si>
-  <si>
-    <t>R$ 1.931,20</t>
-  </si>
-  <si>
-    <t>R$ 2.073,72</t>
-  </si>
-  <si>
     <t>480718 - KJ CORRETORA DE SEGUROS LTDA</t>
   </si>
   <si>
-    <t>21054</t>
-  </si>
-  <si>
-    <t>De: 24/10/2024 a 24/10/2025</t>
-  </si>
-  <si>
-    <t>ERIC TAVARES DA SILVA</t>
-  </si>
-  <si>
-    <t>R$ 225,09</t>
-  </si>
-  <si>
-    <t>R$ 241,69</t>
-  </si>
-  <si>
     <t>512340 - LID SILVA CORRETORA DE SEGUROS L</t>
   </si>
   <si>
-    <t>110294</t>
-  </si>
-  <si>
-    <t>De: 07/10/2024 a 07/10/2025</t>
-  </si>
-  <si>
-    <t>JESSICA ALINE DE CARVALHO RANGEL</t>
-  </si>
-  <si>
-    <t>R$ 2.186,02</t>
-  </si>
-  <si>
-    <t>R$ 2.347,34</t>
-  </si>
-  <si>
-    <t>110505</t>
-  </si>
-  <si>
-    <t>De: 31/10/2024 a 31/10/2025</t>
-  </si>
-  <si>
-    <t>RICARDO SOARES DA SILVA</t>
-  </si>
-  <si>
-    <t>R$ 1.610,52</t>
-  </si>
-  <si>
-    <t>R$ 1.729,37</t>
-  </si>
-  <si>
     <t>510704 - M BUCK CORRETORA DE SEGUROS LTDA</t>
   </si>
   <si>
     <t>440020 - MAFEROLI CORR. SEGUROS LTDA ME</t>
   </si>
   <si>
-    <t>110523</t>
-  </si>
-  <si>
-    <t>De: 25/10/2024 a 25/10/2025</t>
-  </si>
-  <si>
-    <t>JOAO SERGIO FEDSCHENKO</t>
-  </si>
-  <si>
-    <t>R$ 1.992,82</t>
-  </si>
-  <si>
-    <t>R$ 2.139,89</t>
-  </si>
-  <si>
     <t>445572 - NC CHAVES CORRETORA DE SEGUROS L</t>
   </si>
   <si>
@@ -470,21 +215,6 @@
     <t>500182 - PRIME RISKS CORRETORA DE SEG LTD</t>
   </si>
   <si>
-    <t>20879</t>
-  </si>
-  <si>
-    <t>De: 29/09/2024 a 29/09/2025</t>
-  </si>
-  <si>
-    <t>IVONE APARECIDA TANZI</t>
-  </si>
-  <si>
-    <t>R$ 258,37</t>
-  </si>
-  <si>
-    <t>R$ 277,39</t>
-  </si>
-  <si>
     <t>505708 - RENATA CORRETORA DE SEGUROS SORO</t>
   </si>
   <si>
@@ -497,36 +227,9 @@
     <t>502630 - RWM CORR E ADM DE SEG LTDA</t>
   </si>
   <si>
-    <t>110161</t>
-  </si>
-  <si>
-    <t>De: 22/09/2024 a 22/09/2025</t>
-  </si>
-  <si>
-    <t>AGUINALDO DE OLIVEIRA SILVA</t>
-  </si>
-  <si>
-    <t>R$ 3.063,87</t>
-  </si>
-  <si>
-    <t>R$ 3.289,98</t>
-  </si>
-  <si>
     <t>404261 - SIA CORRETORA DE SEGUROS LTDA</t>
   </si>
   <si>
-    <t>110486</t>
-  </si>
-  <si>
-    <t>GABRIELA MARICONI BARBOSA PENHA</t>
-  </si>
-  <si>
-    <t>R$ 1.764,17</t>
-  </si>
-  <si>
-    <t>R$ 1.894,36</t>
-  </si>
-  <si>
     <t>488624 - SQUAGGIO CORRETORA DE SEGUROS LT</t>
   </si>
   <si>
@@ -536,154 +239,16 @@
     <t>440692 - TORRINHA CORR DE SEGS LTDA ME</t>
   </si>
   <si>
-    <t>110257</t>
-  </si>
-  <si>
-    <t>De: 19/09/2024 a 19/09/2025</t>
-  </si>
-  <si>
-    <t>ANTONIO MANOEL DA SILVA JUNIOR E OUTROS</t>
-  </si>
-  <si>
-    <t>02/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 46.122,04</t>
-  </si>
-  <si>
-    <t>R$ 49.525,85</t>
-  </si>
-  <si>
     <t>493800 - VLR SEGS E ASSISTENCIAS LTDA</t>
   </si>
   <si>
-    <t>R$ 4.643,34</t>
-  </si>
-  <si>
-    <t>R$ 4.986,01</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>R$ 9.722,03</t>
-  </si>
-  <si>
-    <t>R$ 10.439,51</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>R$ 9.165,39</t>
-  </si>
-  <si>
-    <t>R$ 9.841,81</t>
-  </si>
-  <si>
-    <t>R$ 16.178,58</t>
-  </si>
-  <si>
-    <t>R$ 17.372,53</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>R$ 6.412,70</t>
-  </si>
-  <si>
-    <t>R$ 6.885,99</t>
-  </si>
-  <si>
-    <t>110572</t>
-  </si>
-  <si>
-    <t>De: 28/09/2024 a 28/09/2025</t>
-  </si>
-  <si>
-    <t>TELMA CRISTINA FOLEGOTTO BARBOZA</t>
-  </si>
-  <si>
-    <t>R$ 3.280,34</t>
-  </si>
-  <si>
-    <t>R$ 3.522,42</t>
-  </si>
-  <si>
-    <t>20994</t>
-  </si>
-  <si>
-    <t>De: 09/10/2024 a 09/10/2025</t>
-  </si>
-  <si>
-    <t>MARCOS ALFONSI</t>
-  </si>
-  <si>
-    <t>R$ 392,39</t>
-  </si>
-  <si>
-    <t>R$ 421,34</t>
-  </si>
-  <si>
     <t>405004 - VOLBA CORRETORA DE SEGUROS LTDA</t>
   </si>
   <si>
-    <t>110601</t>
-  </si>
-  <si>
-    <t>CAMILA DA SILVA TOLEDO RADIGUIERI</t>
-  </si>
-  <si>
-    <t>R$ 1.442,88</t>
-  </si>
-  <si>
-    <t>R$ 1.549,36</t>
-  </si>
-  <si>
     <t>404516 - W CORRETORA E ADMINISTRADORA DE</t>
   </si>
   <si>
-    <t>20886</t>
-  </si>
-  <si>
-    <t>VITOR DIEGO DE TOLEDO ALVES</t>
-  </si>
-  <si>
-    <t>R$ 292,29</t>
-  </si>
-  <si>
-    <t>R$ 313,85</t>
-  </si>
-  <si>
     <t>506500 - WRK PLURAL CORR E ADM DE SEGUROS</t>
-  </si>
-  <si>
-    <t>20971</t>
-  </si>
-  <si>
-    <t>De: 03/10/2024 a 03/10/2025</t>
-  </si>
-  <si>
-    <t>FERNANDA CARDOSO DE SOUZA</t>
-  </si>
-  <si>
-    <t>R$ 212,03</t>
-  </si>
-  <si>
-    <t>R$ 227,67</t>
-  </si>
-  <si>
-    <t>110291</t>
-  </si>
-  <si>
-    <t>ELZA FRANCISCA VOLPATO</t>
-  </si>
-  <si>
-    <t>R$ 5.753,25</t>
-  </si>
-  <si>
-    <t>R$ 6.177,83</t>
   </si>
 </sst>
 </file>
@@ -728,7 +293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -960,114 +525,114 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -1117,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="P7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="s">
         <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -1173,13 +738,13 @@
         <v>20</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="Q8" t="s">
         <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1235,7 +800,7 @@
         <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1285,13 +850,13 @@
         <v>20</v>
       </c>
       <c r="P10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q10" t="s">
         <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -1341,13 +906,13 @@
         <v>20</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="s">
         <v>22</v>
       </c>
       <c r="R11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -1397,13 +962,13 @@
         <v>20</v>
       </c>
       <c r="P12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q12" t="s">
         <v>22</v>
       </c>
       <c r="R12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -1453,13 +1018,13 @@
         <v>20</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="Q13" t="s">
         <v>22</v>
       </c>
       <c r="R13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -1509,13 +1074,13 @@
         <v>20</v>
       </c>
       <c r="P14" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="Q14" t="s">
         <v>22</v>
       </c>
       <c r="R14" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -1565,51 +1130,51 @@
         <v>20</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="Q15" t="s">
         <v>22</v>
       </c>
       <c r="R15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="M16" t="s">
         <v>18</v>
@@ -1627,7 +1192,7 @@
         <v>22</v>
       </c>
       <c r="R16" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -1683,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="R17" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
@@ -1739,7 +1304,7 @@
         <v>22</v>
       </c>
       <c r="R18" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -1789,13 +1354,13 @@
         <v>20</v>
       </c>
       <c r="P19" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="Q19" t="s">
         <v>22</v>
       </c>
       <c r="R19" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
@@ -1845,13 +1410,13 @@
         <v>20</v>
       </c>
       <c r="P20" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="Q20" t="s">
         <v>22</v>
       </c>
       <c r="R20" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1907,45 +1472,45 @@
         <v>22</v>
       </c>
       <c r="R21" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="L22" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="M22" t="s">
         <v>18</v>
@@ -1957,13 +1522,13 @@
         <v>20</v>
       </c>
       <c r="P22" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q22" t="s">
         <v>22</v>
       </c>
       <c r="R22" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
@@ -2013,13 +1578,13 @@
         <v>20</v>
       </c>
       <c r="P23" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="Q23" t="s">
         <v>22</v>
       </c>
       <c r="R23" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -2075,45 +1640,45 @@
         <v>22</v>
       </c>
       <c r="R24" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="L25" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="M25" t="s">
         <v>18</v>
@@ -2131,45 +1696,45 @@
         <v>22</v>
       </c>
       <c r="R25" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K26" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="M26" t="s">
         <v>18</v>
@@ -2187,46 +1752,46 @@
         <v>22</v>
       </c>
       <c r="R26" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" t="s">
         <v>56</v>
       </c>
-      <c r="K27" t="s">
-        <v>89</v>
-      </c>
-      <c r="L27" t="s">
-        <v>90</v>
-      </c>
       <c r="M27" t="s">
         <v>18</v>
       </c>
@@ -2243,45 +1808,45 @@
         <v>22</v>
       </c>
       <c r="R27" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="K28" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="L28" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="M28" t="s">
         <v>18</v>
@@ -2299,45 +1864,45 @@
         <v>22</v>
       </c>
       <c r="R28" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="L29" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="M29" t="s">
         <v>18</v>
@@ -2355,45 +1920,45 @@
         <v>22</v>
       </c>
       <c r="R29" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K30" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="L30" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="M30" t="s">
         <v>18</v>
@@ -2411,7 +1976,7 @@
         <v>22</v>
       </c>
       <c r="R30" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -2467,45 +2032,45 @@
         <v>22</v>
       </c>
       <c r="R31" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K32" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="L32" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="M32" t="s">
         <v>18</v>
@@ -2523,45 +2088,45 @@
         <v>22</v>
       </c>
       <c r="R32" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K33" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="L33" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="M33" t="s">
         <v>18</v>
@@ -2573,51 +2138,51 @@
         <v>20</v>
       </c>
       <c r="P33" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q33" t="s">
         <v>22</v>
       </c>
       <c r="R33" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="K34" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="L34" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="M34" t="s">
         <v>18</v>
@@ -2635,7 +2200,7 @@
         <v>22</v>
       </c>
       <c r="R34" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35">
@@ -2691,101 +2256,101 @@
         <v>22</v>
       </c>
       <c r="R35" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" t="s">
+        <v>19</v>
+      </c>
+      <c r="O36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R36" t="s">
         <v>65</v>
-      </c>
-      <c r="C36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" t="s">
-        <v>127</v>
-      </c>
-      <c r="H36" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" t="s">
-        <v>100</v>
-      </c>
-      <c r="K36" t="s">
-        <v>128</v>
-      </c>
-      <c r="L36" t="s">
-        <v>129</v>
-      </c>
-      <c r="M36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" t="s">
-        <v>19</v>
-      </c>
-      <c r="O36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>22</v>
-      </c>
-      <c r="R36" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K37" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="M37" t="s">
         <v>18</v>
@@ -2803,45 +2368,45 @@
         <v>22</v>
       </c>
       <c r="R37" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K38" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="L38" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="M38" t="s">
         <v>18</v>
@@ -2859,7 +2424,7 @@
         <v>22</v>
       </c>
       <c r="R38" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39">
@@ -2915,7 +2480,7 @@
         <v>22</v>
       </c>
       <c r="R39" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40">
@@ -2965,13 +2530,13 @@
         <v>20</v>
       </c>
       <c r="P40" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="Q40" t="s">
         <v>22</v>
       </c>
       <c r="R40" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -3021,51 +2586,51 @@
         <v>20</v>
       </c>
       <c r="P41" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="Q41" t="s">
         <v>22</v>
       </c>
       <c r="R41" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K42" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="L42" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="M42" t="s">
         <v>18</v>
@@ -3083,7 +2648,7 @@
         <v>22</v>
       </c>
       <c r="R42" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
@@ -3133,13 +2698,13 @@
         <v>20</v>
       </c>
       <c r="P43" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q43" t="s">
         <v>22</v>
       </c>
       <c r="R43" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44">
@@ -3189,13 +2754,13 @@
         <v>20</v>
       </c>
       <c r="P44" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="Q44" t="s">
         <v>22</v>
       </c>
       <c r="R44" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45">
@@ -3251,45 +2816,45 @@
         <v>22</v>
       </c>
       <c r="R45" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="L46" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="M46" t="s">
         <v>18</v>
@@ -3307,7 +2872,7 @@
         <v>22</v>
       </c>
       <c r="R46" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
@@ -3357,13 +2922,13 @@
         <v>20</v>
       </c>
       <c r="P47" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q47" t="s">
         <v>22</v>
       </c>
       <c r="R47" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
@@ -3413,13 +2978,13 @@
         <v>20</v>
       </c>
       <c r="P48" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="Q48" t="s">
         <v>22</v>
       </c>
       <c r="R48" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
@@ -3475,45 +3040,45 @@
         <v>22</v>
       </c>
       <c r="R49" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="K50" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="L50" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="M50" t="s">
         <v>18</v>
@@ -3531,45 +3096,45 @@
         <v>22</v>
       </c>
       <c r="R50" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K51" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="L51" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="M51" t="s">
         <v>18</v>
@@ -3587,959 +3152,7 @@
         <v>22</v>
       </c>
       <c r="R51" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" t="s">
-        <v>18</v>
-      </c>
-      <c r="K52" t="s">
-        <v>18</v>
-      </c>
-      <c r="L52" t="s">
-        <v>18</v>
-      </c>
-      <c r="M52" t="s">
-        <v>18</v>
-      </c>
-      <c r="N52" t="s">
-        <v>19</v>
-      </c>
-      <c r="O52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P52" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>22</v>
-      </c>
-      <c r="R52" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53" t="s">
-        <v>18</v>
-      </c>
-      <c r="L53" t="s">
-        <v>18</v>
-      </c>
-      <c r="M53" t="s">
-        <v>18</v>
-      </c>
-      <c r="N53" t="s">
-        <v>19</v>
-      </c>
-      <c r="O53" t="s">
-        <v>20</v>
-      </c>
-      <c r="P53" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>22</v>
-      </c>
-      <c r="R53" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54" t="s">
-        <v>18</v>
-      </c>
-      <c r="M54" t="s">
-        <v>18</v>
-      </c>
-      <c r="N54" t="s">
-        <v>19</v>
-      </c>
-      <c r="O54" t="s">
-        <v>20</v>
-      </c>
-      <c r="P54" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>22</v>
-      </c>
-      <c r="R54" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" t="s">
-        <v>18</v>
-      </c>
-      <c r="L55" t="s">
-        <v>18</v>
-      </c>
-      <c r="M55" t="s">
-        <v>18</v>
-      </c>
-      <c r="N55" t="s">
-        <v>19</v>
-      </c>
-      <c r="O55" t="s">
-        <v>20</v>
-      </c>
-      <c r="P55" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>22</v>
-      </c>
-      <c r="R55" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J56" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" t="s">
-        <v>18</v>
-      </c>
-      <c r="L56" t="s">
-        <v>18</v>
-      </c>
-      <c r="M56" t="s">
-        <v>18</v>
-      </c>
-      <c r="N56" t="s">
-        <v>19</v>
-      </c>
-      <c r="O56" t="s">
-        <v>20</v>
-      </c>
-      <c r="P56" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>22</v>
-      </c>
-      <c r="R56" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" t="s">
-        <v>174</v>
-      </c>
-      <c r="D57" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" t="s">
-        <v>175</v>
-      </c>
-      <c r="G57" t="s">
-        <v>176</v>
-      </c>
-      <c r="H57" t="s">
-        <v>30</v>
-      </c>
-      <c r="I57" t="s">
-        <v>177</v>
-      </c>
-      <c r="J57" t="s">
-        <v>34</v>
-      </c>
-      <c r="K57" t="s">
-        <v>178</v>
-      </c>
-      <c r="L57" t="s">
-        <v>179</v>
-      </c>
-      <c r="M57" t="s">
-        <v>18</v>
-      </c>
-      <c r="N57" t="s">
-        <v>19</v>
-      </c>
-      <c r="O57" t="s">
-        <v>20</v>
-      </c>
-      <c r="P57" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>22</v>
-      </c>
-      <c r="R57" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" t="s">
-        <v>174</v>
-      </c>
-      <c r="D58" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58" t="s">
-        <v>175</v>
-      </c>
-      <c r="G58" t="s">
-        <v>176</v>
-      </c>
-      <c r="H58" t="s">
-        <v>30</v>
-      </c>
-      <c r="I58" t="s">
-        <v>177</v>
-      </c>
-      <c r="J58" t="s">
-        <v>34</v>
-      </c>
-      <c r="K58" t="s">
-        <v>181</v>
-      </c>
-      <c r="L58" t="s">
-        <v>182</v>
-      </c>
-      <c r="M58" t="s">
-        <v>18</v>
-      </c>
-      <c r="N58" t="s">
-        <v>19</v>
-      </c>
-      <c r="O58" t="s">
-        <v>20</v>
-      </c>
-      <c r="P58" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>22</v>
-      </c>
-      <c r="R58" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" t="s">
-        <v>174</v>
-      </c>
-      <c r="D59" t="s">
-        <v>183</v>
-      </c>
-      <c r="E59" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" t="s">
-        <v>175</v>
-      </c>
-      <c r="G59" t="s">
-        <v>176</v>
-      </c>
-      <c r="H59" t="s">
-        <v>30</v>
-      </c>
-      <c r="I59" t="s">
-        <v>177</v>
-      </c>
-      <c r="J59" t="s">
-        <v>34</v>
-      </c>
-      <c r="K59" t="s">
-        <v>184</v>
-      </c>
-      <c r="L59" t="s">
-        <v>185</v>
-      </c>
-      <c r="M59" t="s">
-        <v>18</v>
-      </c>
-      <c r="N59" t="s">
-        <v>19</v>
-      </c>
-      <c r="O59" t="s">
-        <v>20</v>
-      </c>
-      <c r="P59" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>22</v>
-      </c>
-      <c r="R59" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" t="s">
-        <v>174</v>
-      </c>
-      <c r="D60" t="s">
-        <v>186</v>
-      </c>
-      <c r="E60" t="s">
-        <v>30</v>
-      </c>
-      <c r="F60" t="s">
-        <v>175</v>
-      </c>
-      <c r="G60" t="s">
-        <v>176</v>
-      </c>
-      <c r="H60" t="s">
-        <v>30</v>
-      </c>
-      <c r="I60" t="s">
-        <v>177</v>
-      </c>
-      <c r="J60" t="s">
-        <v>34</v>
-      </c>
-      <c r="K60" t="s">
-        <v>187</v>
-      </c>
-      <c r="L60" t="s">
-        <v>188</v>
-      </c>
-      <c r="M60" t="s">
-        <v>18</v>
-      </c>
-      <c r="N60" t="s">
-        <v>19</v>
-      </c>
-      <c r="O60" t="s">
-        <v>20</v>
-      </c>
-      <c r="P60" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>22</v>
-      </c>
-      <c r="R60" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61" t="s">
-        <v>174</v>
-      </c>
-      <c r="D61" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" t="s">
-        <v>175</v>
-      </c>
-      <c r="G61" t="s">
-        <v>176</v>
-      </c>
-      <c r="H61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I61" t="s">
-        <v>177</v>
-      </c>
-      <c r="J61" t="s">
-        <v>34</v>
-      </c>
-      <c r="K61" t="s">
-        <v>189</v>
-      </c>
-      <c r="L61" t="s">
-        <v>190</v>
-      </c>
-      <c r="M61" t="s">
-        <v>18</v>
-      </c>
-      <c r="N61" t="s">
-        <v>19</v>
-      </c>
-      <c r="O61" t="s">
-        <v>20</v>
-      </c>
-      <c r="P61" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>22</v>
-      </c>
-      <c r="R61" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" t="s">
-        <v>174</v>
-      </c>
-      <c r="D62" t="s">
-        <v>191</v>
-      </c>
-      <c r="E62" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" t="s">
-        <v>175</v>
-      </c>
-      <c r="G62" t="s">
-        <v>176</v>
-      </c>
-      <c r="H62" t="s">
-        <v>30</v>
-      </c>
-      <c r="I62" t="s">
-        <v>177</v>
-      </c>
-      <c r="J62" t="s">
-        <v>34</v>
-      </c>
-      <c r="K62" t="s">
-        <v>192</v>
-      </c>
-      <c r="L62" t="s">
-        <v>193</v>
-      </c>
-      <c r="M62" t="s">
-        <v>18</v>
-      </c>
-      <c r="N62" t="s">
-        <v>19</v>
-      </c>
-      <c r="O62" t="s">
-        <v>20</v>
-      </c>
-      <c r="P62" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>22</v>
-      </c>
-      <c r="R62" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" t="s">
-        <v>194</v>
-      </c>
-      <c r="D63" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" t="s">
-        <v>195</v>
-      </c>
-      <c r="G63" t="s">
-        <v>196</v>
-      </c>
-      <c r="H63" t="s">
-        <v>30</v>
-      </c>
-      <c r="I63" t="s">
-        <v>41</v>
-      </c>
-      <c r="J63" t="s">
-        <v>56</v>
-      </c>
-      <c r="K63" t="s">
-        <v>197</v>
-      </c>
-      <c r="L63" t="s">
-        <v>198</v>
-      </c>
-      <c r="M63" t="s">
-        <v>18</v>
-      </c>
-      <c r="N63" t="s">
-        <v>19</v>
-      </c>
-      <c r="O63" t="s">
-        <v>20</v>
-      </c>
-      <c r="P63" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>22</v>
-      </c>
-      <c r="R63" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>26</v>
-      </c>
-      <c r="B64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" t="s">
-        <v>199</v>
-      </c>
-      <c r="D64" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" t="s">
-        <v>200</v>
-      </c>
-      <c r="G64" t="s">
-        <v>201</v>
-      </c>
-      <c r="H64" t="s">
-        <v>30</v>
-      </c>
-      <c r="I64" t="s">
-        <v>69</v>
-      </c>
-      <c r="J64" t="s">
-        <v>100</v>
-      </c>
-      <c r="K64" t="s">
-        <v>202</v>
-      </c>
-      <c r="L64" t="s">
-        <v>203</v>
-      </c>
-      <c r="M64" t="s">
-        <v>18</v>
-      </c>
-      <c r="N64" t="s">
-        <v>19</v>
-      </c>
-      <c r="O64" t="s">
-        <v>20</v>
-      </c>
-      <c r="P64" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>22</v>
-      </c>
-      <c r="R64" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>26</v>
-      </c>
-      <c r="B65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" t="s">
-        <v>205</v>
-      </c>
-      <c r="D65" t="s">
-        <v>29</v>
-      </c>
-      <c r="E65" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" t="s">
-        <v>200</v>
-      </c>
-      <c r="G65" t="s">
-        <v>206</v>
-      </c>
-      <c r="H65" t="s">
-        <v>30</v>
-      </c>
-      <c r="I65" t="s">
-        <v>41</v>
-      </c>
-      <c r="J65" t="s">
-        <v>34</v>
-      </c>
-      <c r="K65" t="s">
-        <v>207</v>
-      </c>
-      <c r="L65" t="s">
-        <v>208</v>
-      </c>
-      <c r="M65" t="s">
-        <v>18</v>
-      </c>
-      <c r="N65" t="s">
-        <v>19</v>
-      </c>
-      <c r="O65" t="s">
-        <v>20</v>
-      </c>
-      <c r="P65" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>22</v>
-      </c>
-      <c r="R65" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>26</v>
-      </c>
-      <c r="B66" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" t="s">
-        <v>210</v>
-      </c>
-      <c r="D66" t="s">
-        <v>29</v>
-      </c>
-      <c r="E66" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" t="s">
-        <v>98</v>
-      </c>
-      <c r="G66" t="s">
-        <v>211</v>
-      </c>
-      <c r="H66" t="s">
-        <v>30</v>
-      </c>
-      <c r="I66" t="s">
-        <v>83</v>
-      </c>
-      <c r="J66" t="s">
-        <v>29</v>
-      </c>
-      <c r="K66" t="s">
-        <v>212</v>
-      </c>
-      <c r="L66" t="s">
-        <v>213</v>
-      </c>
-      <c r="M66" t="s">
-        <v>18</v>
-      </c>
-      <c r="N66" t="s">
-        <v>19</v>
-      </c>
-      <c r="O66" t="s">
-        <v>20</v>
-      </c>
-      <c r="P66" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>22</v>
-      </c>
-      <c r="R66" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B67" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" t="s">
-        <v>215</v>
-      </c>
-      <c r="D67" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67" t="s">
-        <v>30</v>
-      </c>
-      <c r="F67" t="s">
-        <v>216</v>
-      </c>
-      <c r="G67" t="s">
-        <v>217</v>
-      </c>
-      <c r="H67" t="s">
-        <v>30</v>
-      </c>
-      <c r="I67" t="s">
-        <v>111</v>
-      </c>
-      <c r="J67" t="s">
-        <v>29</v>
-      </c>
-      <c r="K67" t="s">
-        <v>218</v>
-      </c>
-      <c r="L67" t="s">
-        <v>219</v>
-      </c>
-      <c r="M67" t="s">
-        <v>18</v>
-      </c>
-      <c r="N67" t="s">
-        <v>19</v>
-      </c>
-      <c r="O67" t="s">
-        <v>20</v>
-      </c>
-      <c r="P67" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>22</v>
-      </c>
-      <c r="R67" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" t="s">
-        <v>220</v>
-      </c>
-      <c r="D68" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" t="s">
-        <v>98</v>
-      </c>
-      <c r="G68" t="s">
-        <v>221</v>
-      </c>
-      <c r="H68" t="s">
-        <v>30</v>
-      </c>
-      <c r="I68" t="s">
-        <v>111</v>
-      </c>
-      <c r="J68" t="s">
-        <v>34</v>
-      </c>
-      <c r="K68" t="s">
-        <v>222</v>
-      </c>
-      <c r="L68" t="s">
-        <v>223</v>
-      </c>
-      <c r="M68" t="s">
-        <v>18</v>
-      </c>
-      <c r="N68" t="s">
-        <v>19</v>
-      </c>
-      <c r="O68" t="s">
-        <v>20</v>
-      </c>
-      <c r="P68" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>22</v>
-      </c>
-      <c r="R68" t="s">
-        <v>214</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
